--- a/data/trans_bre/P38C-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P38C-Habitat-trans_bre.xlsx
@@ -541,7 +541,7 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -551,7 +551,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -571,7 +571,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -631,7 +631,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -691,7 +691,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -751,7 +751,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_bre/P38C-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P38C-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -581,22 +581,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,1</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,65</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,7%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,33%</t>
         </is>
       </c>
     </row>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,11; 13,58</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,99; 17,4</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,78; 17,99</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,28; 22,46</t>
         </is>
       </c>
     </row>
@@ -641,22 +641,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,28</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,51</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,38%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,61%</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,21; 9,59</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,33; 11,69</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,24; 12,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,66; 14,39</t>
         </is>
       </c>
     </row>
@@ -701,22 +701,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,02</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,55</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,73%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,36%</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,89; 11,02</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,08; 22,76</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,94; 13,68</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,52; 36,58</t>
         </is>
       </c>
     </row>
@@ -761,22 +761,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,09</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,11</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,84%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,24%</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,09; 10,64</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,99; 14,47</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,84; 13,81</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,67; 18,96</t>
         </is>
       </c>
     </row>
@@ -821,22 +821,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,87</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,86</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,81%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,12%</t>
         </is>
       </c>
     </row>
@@ -849,22 +849,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,23; 7,55</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,23; 9,32</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,24; 9,66</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,21; 12,11</t>
         </is>
       </c>
     </row>
@@ -881,22 +881,22 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,97</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,6</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,32%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,64%</t>
         </is>
       </c>
     </row>
@@ -909,22 +909,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,13; 7,79</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,0; 12,2</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,96; 9,61</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,19; 16,46</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P38C-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P38C-Habitat-trans_bre.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -571,7 +571,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -581,22 +581,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,1</t>
+          <t>4,91</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,65</t>
+          <t>6,43</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,7%</t>
+          <t>5,92%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5,33%</t>
+          <t>7,47%</t>
         </is>
       </c>
     </row>
@@ -609,29 +609,29 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,11; 13,58</t>
+          <t>0,67; 8,95</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,99; 17,4</t>
+          <t>2,35; 11,09</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,78; 17,99</t>
+          <t>0,83; 11,23</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,28; 22,46</t>
+          <t>2,68; 13,57</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -641,22 +641,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,28</t>
+          <t>8,02</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>6,51</t>
+          <t>23,06</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>6,38%</t>
+          <t>9,73%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>7,61%</t>
+          <t>37,26%</t>
         </is>
       </c>
     </row>
@@ -669,29 +669,29 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,21; 9,59</t>
+          <t>4,89; 11,02</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,33; 11,69</t>
+          <t>5,98; 52,76</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,24; 12,0</t>
+          <t>5,94; 13,68</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,66; 14,39</t>
+          <t>7,53; 156,97</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -701,22 +701,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>8,02</t>
+          <t>7,09</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>10,55</t>
+          <t>10,36</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>9,73%</t>
+          <t>8,84%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>14,36%</t>
+          <t>13,1%</t>
         </is>
       </c>
     </row>
@@ -729,29 +729,29 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,89; 11,02</t>
+          <t>3,09; 10,64</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,08; 22,76</t>
+          <t>4,84; 17,93</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,94; 13,68</t>
+          <t>3,84; 13,81</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,52; 36,58</t>
+          <t>6,0; 23,85</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -761,22 +761,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7,09</t>
+          <t>3,87</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>8,11</t>
+          <t>1,07</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>8,84%</t>
+          <t>4,81%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>10,24%</t>
+          <t>1,34%</t>
         </is>
       </c>
     </row>
@@ -789,29 +789,29 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,09; 10,64</t>
+          <t>0,23; 7,55</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,99; 14,47</t>
+          <t>-17,51; 8,29</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,84; 13,81</t>
+          <t>0,24; 9,66</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,67; 18,96</t>
+          <t>-21,7; 10,5</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -821,22 +821,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>3,87</t>
+          <t>5,97</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>4,86</t>
+          <t>11,63</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>4,81%</t>
+          <t>7,32%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>6,12%</t>
+          <t>15,58%</t>
         </is>
       </c>
     </row>
@@ -849,94 +849,34 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,23; 7,55</t>
+          <t>4,13; 7,79</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 9,32</t>
+          <t>3,95; 28,43</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,24; 9,66</t>
+          <t>4,96; 9,61</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 12,11</t>
+          <t>4,88; 48,71</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>5,97</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>7,6</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>7,32%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>9,64%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>4,13; 7,79</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>5,0; 12,2</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>4,96; 9,61</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>6,19; 16,46</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
@@ -945,7 +885,6 @@
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P38C-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P38C-Habitat-trans_bre.xlsx
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,67; 8,95</t>
+          <t>0,74; 8,61</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,35; 11,09</t>
+          <t>2,47; 11,23</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,83; 11,23</t>
+          <t>1,04; 10,73</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,68; 13,57</t>
+          <t>2,81; 13,83</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,89; 11,02</t>
+          <t>4,98; 10,85</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,98; 52,76</t>
+          <t>5,87; 53,17</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,94; 13,68</t>
+          <t>5,93; 13,51</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,53; 156,97</t>
+          <t>7,48; 164,05</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,09; 10,64</t>
+          <t>3,22; 10,82</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,84; 17,93</t>
+          <t>5,26; 17,34</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,84; 13,81</t>
+          <t>3,91; 13,95</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,0; 23,85</t>
+          <t>6,45; 22,72</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,23; 7,55</t>
+          <t>0,33; 7,36</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-17,51; 8,29</t>
+          <t>-14,59; 7,94</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,24; 9,66</t>
+          <t>0,38; 9,33</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-21,7; 10,5</t>
+          <t>-18,16; 10,08</t>
         </is>
       </c>
     </row>
@@ -849,22 +849,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,13; 7,79</t>
+          <t>4,26; 7,79</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,95; 28,43</t>
+          <t>4,76; 28,75</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,96; 9,61</t>
+          <t>5,19; 9,64</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,88; 48,71</t>
+          <t>6,03; 51,8</t>
         </is>
       </c>
     </row>
